--- a/tbl打包工具/excel/officalConfig.xlsx
+++ b/tbl打包工具/excel/officalConfig.xlsx
@@ -540,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郡国相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汉郡国属官，管王国内的民事。其职权相当于郡之太守，均由朝廷任命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,6 +553,10 @@
   </si>
   <si>
     <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +915,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,7 +929,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>118</v>
@@ -938,7 +938,7 @@
         <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>120</v>
@@ -947,7 +947,7 @@
         <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>137</v>
@@ -961,7 +961,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>142</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>140</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>138</v>

--- a/tbl打包工具/excel/officalConfig.xlsx
+++ b/tbl打包工具/excel/officalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,347 +216,364 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>射声校尉</t>
+  </si>
+  <si>
+    <t>屯骑校尉</t>
+  </si>
+  <si>
+    <t>越骑校尉</t>
+  </si>
+  <si>
+    <t>长水校尉</t>
+  </si>
+  <si>
+    <t>汉武帝时，置八校尉领北军，其中有步兵校尉，秩二千石，掌上林苑门屯兵，后东汉省中垒校尉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉武帝置八校尉中有射声校尉，掌待诏射声士，秩二千石,掌宿卫兵，后虎贲校尉入射声校尉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉武帝时始置，掌骑士，东汉改骁骑，后复置，掌宿卫兵，秩比二千石，隶属中领军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉制，为武帝所置，京师屯兵八校尉之一，掌长水胡骑，秩二千石，后胡骑校尉入长水校尉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉武帝始置，掌越骑。东汉沿置，设越骑校尉一人，比二千石，掌宿卫兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大将军</t>
+  </si>
+  <si>
+    <t>战国时始置，是将军的最高封号，东汉时多由贵戚充任，三公之上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商、周两代已有太子太傅，汉沿置，秩三千石。辅弼国君之官，作为重臣参与朝政，掌管全国的军政大权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战国时始置，为百官之长。哀帝元寿二年，罢丞相，置大司徒。三公之一。</t>
+  </si>
+  <si>
+    <t>掌管弹劾、纠察的官员，其位仅次于丞相。成帝时改御史大夫为大司空。三公之一。</t>
+  </si>
+  <si>
+    <t>大司马</t>
+  </si>
+  <si>
+    <t>汉武帝废太尉设大司马，为掌管军政和军赋的最高官职，即全国最高军事长官。东汉时与司徒、司空并称三公。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骠骑将军</t>
+  </si>
+  <si>
+    <t>车骑将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征东将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征南将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征西将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征北将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇东将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇南将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇西将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇北将军</t>
+  </si>
+  <si>
+    <t>汉武帝始置，以霍去病为之，秩位同大将军，金印紫绶，位同三公，三国均置。</t>
+  </si>
+  <si>
+    <t>汉制，仅次于大将军、骠骑将军，金印紫绶，地位相当于上卿，或比三公。典京师兵卫，掌宫卫。</t>
+  </si>
+  <si>
+    <t>汉文帝始置，位亚三司，第二品。在将军中次于大将军、骠骑将军、车骑将军。</t>
+  </si>
+  <si>
+    <t>统领青、兖、徐、扬四州，屯驻扬州。</t>
+  </si>
+  <si>
+    <t>统领荆、豫二州，屯驻新野。</t>
+  </si>
+  <si>
+    <t>统领雍、凉二州，屯驻长安。</t>
+  </si>
+  <si>
+    <t>统领幽、冀、并三州，屯驻蓟州。</t>
+  </si>
+  <si>
+    <t>第二品，位次四征将军，领兵如征东将军。资深者为大将军。</t>
+  </si>
+  <si>
+    <t>第二品，位次四征将军，领兵如征南将军。资深者为大将军。</t>
+  </si>
+  <si>
+    <t>第二品，位次四征将军，领兵如征西将军。资深者为大将军。</t>
+  </si>
+  <si>
+    <t>第二品，位次四征将军，领兵如征北将军。资深者为大将军。</t>
+  </si>
+  <si>
+    <t>大鸿胪</t>
+  </si>
+  <si>
+    <t>太仆</t>
+  </si>
+  <si>
+    <t>廷尉</t>
+  </si>
+  <si>
+    <t>大司农</t>
+  </si>
+  <si>
+    <t>少府</t>
+  </si>
+  <si>
+    <t>宗正</t>
+  </si>
+  <si>
+    <t>卫尉</t>
+  </si>
+  <si>
+    <t>太常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光禄勋</t>
+  </si>
+  <si>
+    <t>秦时称典客，汉初称大行令，汉武帝太初元年更名为大鸿胪，掌管接待宾客之事。九卿之一。</t>
+  </si>
+  <si>
+    <t>秦和两汉均设太仆，王莽一度更名为太御，掌管舆马及牧畜之事。九卿之一。</t>
+  </si>
+  <si>
+    <t>秦时始置，汉景帝更名为大理，廷尉掌管刑法狱讼，是各地上诉的最高司法机关。九卿之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦时称治粟内史，汉武帝更名为大司农。大司农掌管租税、钱谷、盐铁和国家财政收支。九卿之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦和两汉均设少府，与大司农一同掌管财货。不过大司农掌管国家财货，而少府则管供养皇帝。九卿之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦时始置，王莽称宗伯，东汉复称宗正，掌管皇族与外戚事务。两汉皆以刘姓宗室充任。九卿之一。</t>
+  </si>
+  <si>
+    <t>秦时始置，汉景帝初更名为中大夫令，不久即恢复原名，掌管宫门警卫。九卿之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦时称奉常，汉景帝中元六年（公元前144年）更名为太常，掌管礼乐社稷、宗庙礼仪。九卿之一。</t>
+  </si>
+  <si>
+    <t>秦时称郎中令，汉武帝更名为光禄勋。王莽称司中，东汉又称光禄勋。掌管宿卫宫殿门户。九卿之一。</t>
+  </si>
+  <si>
+    <t>王侯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦汉以后帝王改称皇帝，王成为封爵的最高一级。</t>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加血量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加智力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加带兵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职类型，0通用，1主角,2武将，3军师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质,0五品以下,1五品，2四品，3三品，4二品，5一品，6王侯，7皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古时三公之首，周置﹐为辅弼国君之官。秦废。汉复置。晋代避司马师讳，曾改作太宰。晋之后复称太师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大司徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大司空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即天子，最高统治者的称呼。天子自称其权力出于神授，是秉承天意治理天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001-5015;6001-6020;7002-7007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下属官职,-表示连续区间，;表示间隔区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-4005;5001-5015;6001-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦时始置，西汉时丞相下有两长史，将军幕府、州中亦有长史，为幕僚之长，职任颇重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-3009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五官掾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西汉置。汉代郡太守自署属吏之一，掌春秋祭祀，若其他各曹员缺，则署理或代行其事，无固定职务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都丞为太守的佐官，秩六百石（太守秩二千石）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡国相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉郡国属官，管王国内的民事。其职权相当于郡之太守，均由朝廷任命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官名。县令本直隶于国君，战国末年，郡县两级制形成，县属于郡，县令成为郡守的下属。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>步兵校尉</t>
-  </si>
-  <si>
-    <t>射声校尉</t>
-  </si>
-  <si>
-    <t>屯骑校尉</t>
-  </si>
-  <si>
-    <t>越骑校尉</t>
-  </si>
-  <si>
-    <t>长水校尉</t>
-  </si>
-  <si>
-    <t>汉武帝时，置八校尉领北军，其中有步兵校尉，秩二千石，掌上林苑门屯兵，后东汉省中垒校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉武帝置八校尉中有射声校尉，掌待诏射声士，秩二千石,掌宿卫兵，后虎贲校尉入射声校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉武帝时始置，掌骑士，东汉改骁骑，后复置，掌宿卫兵，秩比二千石，隶属中领军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉制，为武帝所置，京师屯兵八校尉之一，掌长水胡骑，秩二千石，后胡骑校尉入长水校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉武帝始置，掌越骑。东汉沿置，设越骑校尉一人，比二千石，掌宿卫兵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大将军</t>
-  </si>
-  <si>
-    <t>战国时始置，是将军的最高封号，东汉时多由贵戚充任，三公之上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商、周两代已有太子太傅，汉沿置，秩三千石。辅弼国君之官，作为重臣参与朝政，掌管全国的军政大权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战国时始置，为百官之长。哀帝元寿二年，罢丞相，置大司徒。三公之一。</t>
-  </si>
-  <si>
-    <t>掌管弹劾、纠察的官员，其位仅次于丞相。成帝时改御史大夫为大司空。三公之一。</t>
-  </si>
-  <si>
-    <t>大司马</t>
-  </si>
-  <si>
-    <t>汉武帝废太尉设大司马，为掌管军政和军赋的最高官职，即全国最高军事长官。东汉时与司徒、司空并称三公。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骠骑将军</t>
-  </si>
-  <si>
-    <t>车骑将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征东将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征南将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征西将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征北将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇东将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇南将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇西将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇北将军</t>
-  </si>
-  <si>
-    <t>汉武帝始置，以霍去病为之，秩位同大将军，金印紫绶，位同三公，三国均置。</t>
-  </si>
-  <si>
-    <t>汉制，仅次于大将军、骠骑将军，金印紫绶，地位相当于上卿，或比三公。典京师兵卫，掌宫卫。</t>
-  </si>
-  <si>
-    <t>汉文帝始置，位亚三司，第二品。在将军中次于大将军、骠骑将军、车骑将军。</t>
-  </si>
-  <si>
-    <t>统领青、兖、徐、扬四州，屯驻扬州。</t>
-  </si>
-  <si>
-    <t>统领荆、豫二州，屯驻新野。</t>
-  </si>
-  <si>
-    <t>统领雍、凉二州，屯驻长安。</t>
-  </si>
-  <si>
-    <t>统领幽、冀、并三州，屯驻蓟州。</t>
-  </si>
-  <si>
-    <t>第二品，位次四征将军，领兵如征东将军。资深者为大将军。</t>
-  </si>
-  <si>
-    <t>第二品，位次四征将军，领兵如征南将军。资深者为大将军。</t>
-  </si>
-  <si>
-    <t>第二品，位次四征将军，领兵如征西将军。资深者为大将军。</t>
-  </si>
-  <si>
-    <t>第二品，位次四征将军，领兵如征北将军。资深者为大将军。</t>
-  </si>
-  <si>
-    <t>大鸿胪</t>
-  </si>
-  <si>
-    <t>太仆</t>
-  </si>
-  <si>
-    <t>廷尉</t>
-  </si>
-  <si>
-    <t>大司农</t>
-  </si>
-  <si>
-    <t>少府</t>
-  </si>
-  <si>
-    <t>宗正</t>
-  </si>
-  <si>
-    <t>卫尉</t>
-  </si>
-  <si>
-    <t>太常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光禄勋</t>
-  </si>
-  <si>
-    <t>秦时称典客，汉初称大行令，汉武帝太初元年更名为大鸿胪，掌管接待宾客之事。九卿之一。</t>
-  </si>
-  <si>
-    <t>秦和两汉均设太仆，王莽一度更名为太御，掌管舆马及牧畜之事。九卿之一。</t>
-  </si>
-  <si>
-    <t>秦时始置，汉景帝更名为大理，廷尉掌管刑法狱讼，是各地上诉的最高司法机关。九卿之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦时称治粟内史，汉武帝更名为大司农。大司农掌管租税、钱谷、盐铁和国家财政收支。九卿之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦和两汉均设少府，与大司农一同掌管财货。不过大司农掌管国家财货，而少府则管供养皇帝。九卿之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦时始置，王莽称宗伯，东汉复称宗正，掌管皇族与外戚事务。两汉皆以刘姓宗室充任。九卿之一。</t>
-  </si>
-  <si>
-    <t>秦时始置，汉景帝初更名为中大夫令，不久即恢复原名，掌管宫门警卫。九卿之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦时称奉常，汉景帝中元六年（公元前144年）更名为太常，掌管礼乐社稷、宗庙礼仪。九卿之一。</t>
-  </si>
-  <si>
-    <t>秦时称郎中令，汉武帝更名为光禄勋。王莽称司中，东汉又称光禄勋。掌管宿卫宫殿门户。九卿之一。</t>
-  </si>
-  <si>
-    <t>王侯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦汉以后帝王改称皇帝，王成为封爵的最高一级。</t>
-  </si>
-  <si>
-    <t>troops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加血量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加智力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加带兵数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职类型，0通用，1主角,2武将，3军师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质,0五品以下,1五品，2四品，3三品，4二品，5一品，6王侯，7皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古时三公之首，周置﹐为辅弼国君之官。秦废。汉复置。晋代避司马师讳，曾改作太宰。晋之后复称太师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大司徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大司空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即天子，最高统治者的称呼。天子自称其权力出于神授，是秉承天意治理天下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001-5015;6001-6020;7002-7007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下属官职,-表示连续区间，;表示间隔区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-4005;5001-5015;6001-6020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦时始置，西汉时丞相下有两长史，将军幕府、州中亦有长史，为幕僚之长，职任颇重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-3009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五官掾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西汉置。汉代郡太守自署属吏之一，掌春秋祭祀，若其他各曹员缺，则署理或代行其事，无固定职务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郡丞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都丞为太守的佐官，秩六百石（太守秩二千石）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-2005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉郡国属官，管王国内的民事。其职权相当于郡之太守，均由朝廷任命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西园校尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平五年八月，汉灵帝初置西园八校尉。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F29" activeCellId="1" sqref="F29 F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,28 +946,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -961,7 +978,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -982,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1048,7 +1065,7 @@
         <v>2003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1069,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1106,7 +1123,7 @@
         <v>2005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1127,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1150,24 +1167,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1181,19 +1198,19 @@
       <c r="G9" s="1">
         <v>2000</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="H9" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1214,15 +1231,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1243,15 +1260,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1272,18 +1289,18 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1301,15 +1318,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1330,15 +1347,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1359,15 +1376,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1388,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>4001</v>
+        <v>3009</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1411,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1446,15 +1463,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1475,15 +1492,15 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1504,15 +1521,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1533,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>5001</v>
+        <v>4004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1556,27 +1573,27 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>142</v>
+        <v>1000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>5002</v>
+        <v>4005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1585,24 +1602,24 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1616,19 +1633,19 @@
       <c r="G24" s="1">
         <v>3000</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
+      <c r="H24" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1649,15 +1666,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1678,15 +1695,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1707,15 +1724,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1736,15 +1753,15 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1765,18 +1782,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -1788,24 +1805,24 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1817,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>5012</v>
+        <v>5009</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1852,15 +1869,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>5013</v>
+        <v>5010</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
@@ -1881,15 +1898,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -1910,15 +1927,15 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -1939,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>6001</v>
+        <v>5014</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1962,27 +1979,27 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>6002</v>
+        <v>5015</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -1991,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -2026,15 +2043,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -2055,15 +2072,15 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -2084,15 +2101,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -2113,15 +2130,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -2142,15 +2159,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -2171,15 +2188,15 @@
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -2200,15 +2217,15 @@
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -2229,15 +2246,15 @@
         <v>0</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -2258,18 +2275,18 @@
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -2281,24 +2298,24 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>6013</v>
+        <v>6011</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -2310,21 +2327,21 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>6014</v>
+        <v>6012</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -2345,15 +2362,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
@@ -2374,15 +2391,15 @@
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>6016</v>
+        <v>6014</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
@@ -2403,15 +2420,15 @@
         <v>0</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>6017</v>
+        <v>6015</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -2432,15 +2449,15 @@
         <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>6018</v>
+        <v>6016</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
@@ -2461,15 +2478,15 @@
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>6019</v>
+        <v>6017</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
@@ -2490,15 +2507,15 @@
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>6020</v>
+        <v>6018</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
@@ -2519,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>7001</v>
+        <v>6019</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -2542,27 +2559,27 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>8000</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>140</v>
+        <v>6000</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>7002</v>
+        <v>6020</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2571,27 +2588,27 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2600,21 +2617,21 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>7000</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -2635,18 +2652,18 @@
         <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -2664,18 +2681,18 @@
         <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -2693,15 +2710,15 @@
         <v>0</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -2722,36 +2739,94 @@
         <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
+        <v>7006</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>7007</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
         <v>8001</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -2795,15 +2870,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -2811,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -2819,23 +2894,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -2843,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/officalConfig.xlsx
+++ b/tbl打包工具/excel/officalConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,174 +406,226 @@
     <t>秦时称郎中令，汉武帝更名为光禄勋。王莽称司中，东汉又称光禄勋。掌管宿卫宫殿门户。九卿之一。</t>
   </si>
   <si>
+    <t>秦汉以后帝王改称皇帝，王成为封爵的最高一级。</t>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加血量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加智力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加带兵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职类型，0通用，1主角,2武将，3军师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质,0五品以下,1五品，2四品，3三品，4二品，5一品，6王侯，7皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古时三公之首，周置﹐为辅弼国君之官。秦废。汉复置。晋代避司马师讳，曾改作太宰。晋之后复称太师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大司徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大司空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即天子，最高统治者的称呼。天子自称其权力出于神授，是秉承天意治理天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001-5015;6001-6020;7002-7007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下属官职,-表示连续区间，;表示间隔区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦时始置，西汉时丞相下有两长史，将军幕府、州中亦有长史，为幕僚之长，职任颇重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五官掾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西汉置。汉代郡太守自署属吏之一，掌春秋祭祀，若其他各曹员缺，则署理或代行其事，无固定职务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都丞为太守的佐官，秩六百石（太守秩二千石）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡国相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉郡国属官，管王国内的民事。其职权相当于郡之太守，均由朝廷任命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官名。县令本直隶于国君，战国末年，郡县两级制形成，县属于郡，县令成为郡守的下属。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵校尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西园校尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平五年八月，汉灵帝初置西园八校尉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王侯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>秦汉以后帝王改称皇帝，王成为封爵的最高一级。</t>
-  </si>
-  <si>
-    <t>troops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加血量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加智力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加带兵数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职类型，0通用，1主角,2武将，3军师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质,0五品以下,1五品，2四品，3三品，4二品，5一品，6王侯，7皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古时三公之首，周置﹐为辅弼国君之官。秦废。汉复置。晋代避司马师讳，曾改作太宰。晋之后复称太师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大司徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大司空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皇帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>即天子，最高统治者的称呼。天子自称其权力出于神授，是秉承天意治理天下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001-5015;6001-6020;7002-7007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下属官职,-表示连续区间，;表示间隔区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-4005;5001-5015;6001-6020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦时始置，西汉时丞相下有两长史，将军幕府、州中亦有长史，为幕僚之长，职任颇重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-3009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五官掾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西汉置。汉代郡太守自署属吏之一，掌春秋祭祀，若其他各曹员缺，则署理或代行其事，无固定职务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郡丞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都丞为太守的佐官，秩六百石（太守秩二千石）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-2005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郡国相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉郡国属官，管王国内的民事。其职权相当于郡之太守，均由朝廷任命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官名。县令本直隶于国君，战国末年，郡县两级制形成，县属于郡，县令成为郡守的下属。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步兵校尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西园校尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平五年八月，汉灵帝初置西园八校尉。</t>
+    <t>六品朝廷小官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六品朝廷小官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七品地方小官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-4009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001-5015;6001-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四品朝廷大员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五品地方主官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三品朝廷重臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二品中央权臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一品王侯权贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至高无上天子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六品朝廷小官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职小提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,82 +981,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" activeCellId="1" sqref="F29 F29"/>
+      <selection activeCell="G15" activeCellId="3" sqref="G15 G15 G15 G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="96.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="16.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="96.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1015,25 +1075,28 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>1000</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1044,28 +1107,31 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>1000</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1073,25 +1139,28 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>1000</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1102,28 +1171,31 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>1000</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1131,487 +1203,538 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>1000</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>1000</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>3002</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>3003</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>3004</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>3005</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>3006</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>3007</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
+      <c r="E15" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>2000</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>3008</v>
+        <v>4002</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
+      <c r="E16" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>2000</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>3009</v>
+        <v>4003</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
+      <c r="E17" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>2000</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>4004</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>4005</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>4007</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>4008</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>4009</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>4003</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>4004</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>4005</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>5001</v>
       </c>
@@ -1624,23 +1747,26 @@
       <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
+      <c r="E24" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>3000</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>5002</v>
       </c>
@@ -1653,23 +1779,26 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
+      <c r="E25" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>3000</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5003</v>
       </c>
@@ -1682,23 +1811,26 @@
       <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
+      <c r="E26" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
         <v>3000</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>5004</v>
       </c>
@@ -1711,23 +1843,26 @@
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="E27" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>3000</v>
       </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>5005</v>
       </c>
@@ -1740,23 +1875,26 @@
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>3000</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>5006</v>
       </c>
@@ -1769,23 +1907,26 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
+      <c r="E29" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>3000</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>5007</v>
       </c>
@@ -1798,23 +1939,26 @@
       <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
+      <c r="E30" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <v>3000</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>5008</v>
       </c>
@@ -1827,23 +1971,26 @@
       <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
+      <c r="E31" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>3000</v>
       </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>5009</v>
       </c>
@@ -1856,23 +2003,26 @@
       <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
+      <c r="E32" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
         <v>4000</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>5010</v>
       </c>
@@ -1885,23 +2035,26 @@
       <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
+      <c r="E33" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <v>4000</v>
       </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>5012</v>
       </c>
@@ -1914,23 +2067,26 @@
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
+      <c r="E34" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>4000</v>
       </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>5013</v>
       </c>
@@ -1943,23 +2099,26 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
+      <c r="E35" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
         <v>4000</v>
       </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>5014</v>
       </c>
@@ -1972,23 +2131,26 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
+      <c r="E36" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>4000</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>5015</v>
       </c>
@@ -2001,23 +2163,26 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
+      <c r="E37" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
         <v>4000</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>6001</v>
       </c>
@@ -2030,23 +2195,26 @@
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
+      <c r="E38" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
         <v>5000</v>
       </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>6002</v>
       </c>
@@ -2059,23 +2227,26 @@
       <c r="D39" s="1">
         <v>4</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
+      <c r="E39" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
         <v>5000</v>
       </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>6003</v>
       </c>
@@ -2088,23 +2259,26 @@
       <c r="D40" s="1">
         <v>4</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
+      <c r="E40" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
         <v>5000</v>
       </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>6004</v>
       </c>
@@ -2117,23 +2291,26 @@
       <c r="D41" s="1">
         <v>4</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
+      <c r="E41" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
         <v>5000</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>6005</v>
       </c>
@@ -2146,23 +2323,26 @@
       <c r="D42" s="1">
         <v>4</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
+      <c r="E42" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
         <v>5000</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>6006</v>
       </c>
@@ -2175,23 +2355,26 @@
       <c r="D43" s="1">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
-        <v>0</v>
+      <c r="E43" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
         <v>5000</v>
       </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>6007</v>
       </c>
@@ -2204,23 +2387,26 @@
       <c r="D44" s="1">
         <v>4</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
+      <c r="E44" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
         <v>5000</v>
       </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>6008</v>
       </c>
@@ -2233,23 +2419,26 @@
       <c r="D45" s="1">
         <v>4</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
+      <c r="E45" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
         <v>5000</v>
       </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>6009</v>
       </c>
@@ -2262,23 +2451,26 @@
       <c r="D46" s="1">
         <v>4</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
+      <c r="E46" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
         <v>5000</v>
       </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>6010</v>
       </c>
@@ -2291,23 +2483,26 @@
       <c r="D47" s="1">
         <v>4</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
+      <c r="E47" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
         <v>5000</v>
       </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>6011</v>
       </c>
@@ -2320,23 +2515,26 @@
       <c r="D48" s="1">
         <v>4</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
+      <c r="E48" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
         <v>5000</v>
       </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>6012</v>
       </c>
@@ -2349,23 +2547,26 @@
       <c r="D49" s="1">
         <v>4</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
+      <c r="E49" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
         <v>6000</v>
       </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>6013</v>
       </c>
@@ -2378,23 +2579,26 @@
       <c r="D50" s="1">
         <v>4</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
+      <c r="E50" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
         <v>6000</v>
       </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>6014</v>
       </c>
@@ -2407,23 +2611,26 @@
       <c r="D51" s="1">
         <v>4</v>
       </c>
-      <c r="E51" s="1">
-        <v>0</v>
+      <c r="E51" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
         <v>6000</v>
       </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>6015</v>
       </c>
@@ -2436,23 +2643,26 @@
       <c r="D52" s="1">
         <v>4</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
+      <c r="E52" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
         <v>6000</v>
       </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>6016</v>
       </c>
@@ -2465,23 +2675,26 @@
       <c r="D53" s="1">
         <v>4</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
+      <c r="E53" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
         <v>6000</v>
       </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>6017</v>
       </c>
@@ -2494,23 +2707,26 @@
       <c r="D54" s="1">
         <v>4</v>
       </c>
-      <c r="E54" s="1">
-        <v>0</v>
+      <c r="E54" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
         <v>6000</v>
       </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>6018</v>
       </c>
@@ -2523,23 +2739,26 @@
       <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
+      <c r="E55" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
         <v>6000</v>
       </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>6019</v>
       </c>
@@ -2552,23 +2771,26 @@
       <c r="D56" s="1">
         <v>4</v>
       </c>
-      <c r="E56" s="1">
-        <v>0</v>
+      <c r="E56" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
         <v>6000</v>
       </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>6020</v>
       </c>
@@ -2581,28 +2803,31 @@
       <c r="D57" s="1">
         <v>4</v>
       </c>
-      <c r="E57" s="1">
-        <v>0</v>
+      <c r="E57" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
         <v>6000</v>
       </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>7001</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2610,23 +2835,26 @@
       <c r="D58" s="1">
         <v>6</v>
       </c>
-      <c r="E58" s="1">
-        <v>0</v>
+      <c r="E58" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
         <v>8000</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>7002</v>
       </c>
@@ -2639,28 +2867,31 @@
       <c r="D59" s="1">
         <v>5</v>
       </c>
-      <c r="E59" s="1">
-        <v>0</v>
+      <c r="E59" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
         <v>7000</v>
       </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>7003</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -2668,23 +2899,26 @@
       <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="E60" s="1">
-        <v>0</v>
+      <c r="E60" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
         <v>7000</v>
       </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>7004</v>
       </c>
@@ -2697,28 +2931,31 @@
       <c r="D61" s="1">
         <v>5</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
+      <c r="E61" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
         <v>7000</v>
       </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>7005</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -2726,28 +2963,31 @@
       <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
+      <c r="E62" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
         <v>7000</v>
       </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>7006</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
@@ -2755,28 +2995,31 @@
       <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
+      <c r="E63" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
         <v>7000</v>
       </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>7007</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -2784,28 +3027,31 @@
       <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
+      <c r="E64" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
         <v>7000</v>
       </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>8001</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -2813,20 +3059,23 @@
       <c r="D65" s="1">
         <v>7</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
+      <c r="E65" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
         <v>10000</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>134</v>
+      <c r="I65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2838,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" activeCellId="2" sqref="B19 B19 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2854,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -2870,55 +3119,63 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>125</v>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/officalConfig.xlsx
+++ b/tbl打包工具/excel/officalConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="161">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,16 +122,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>都督</t>
-  </si>
-  <si>
     <t>前将军</t>
   </si>
   <si>
-    <t>三国始置都督和大都督，领兵将领或地方军政长官之称。加大都督者，颁与黄钺以节制持节将军等高级将领。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后将军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,38 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>射声校尉</t>
-  </si>
-  <si>
-    <t>屯骑校尉</t>
-  </si>
-  <si>
-    <t>越骑校尉</t>
-  </si>
-  <si>
-    <t>长水校尉</t>
-  </si>
-  <si>
-    <t>汉武帝时，置八校尉领北军，其中有步兵校尉，秩二千石，掌上林苑门屯兵，后东汉省中垒校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉武帝置八校尉中有射声校尉，掌待诏射声士，秩二千石,掌宿卫兵，后虎贲校尉入射声校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉武帝时始置，掌骑士，东汉改骁骑，后复置，掌宿卫兵，秩比二千石，隶属中领军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉制，为武帝所置，京师屯兵八校尉之一，掌长水胡骑，秩二千石，后胡骑校尉入长水校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉武帝始置，掌越骑。东汉沿置，设越骑校尉一人，比二千石，掌宿卫兵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大将军</t>
   </si>
   <si>
@@ -453,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品质,0五品以下,1五品，2四品，3三品，4二品，5一品，6王侯，7皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,18 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步兵校尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西园校尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平五年八月，汉灵帝初置西园八校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王侯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,22 +510,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六品朝廷小官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六品朝廷小官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七品地方小官</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4001-4009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5001-5015;6001-6020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五品地方主官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三品朝廷重臣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,31 +530,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官职小提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六品地方主官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五品州牧辅官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;4001-4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七品地方小官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六品地方主官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五品州牧辅官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四品朝廷大员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三品朝廷重臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二品中央权臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一品王侯权贵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>至高无上天子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六品朝廷小官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官职小提示</t>
+    <t>品质,0七品地方小官,1六品地方主官，2五品州牧辅官，3四品朝廷大员，4三品朝廷重臣，5二品中央权臣，6一品王侯权贵，7至高天子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至高天子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" activeCellId="3" sqref="G15 G15 G15 G15"/>
+      <selection activeCell="F18" activeCellId="4" sqref="F18 F18 F18 F18 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,31 +969,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -1035,7 +1004,7 @@
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1044,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1059,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1076,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1108,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1131,7 +1100,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1140,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1155,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1172,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1195,7 +1164,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1204,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1219,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1227,16 +1196,16 @@
         <v>3001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1245,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1259,42 +1228,42 @@
         <v>3002</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>3003</v>
+        <v>4001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1309,30 +1278,30 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>3004</v>
+        <v>4002</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1341,30 +1310,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>3005</v>
+        <v>4003</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1373,30 +1342,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>3006</v>
+        <v>4004</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1405,30 +1374,30 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>3007</v>
+        <v>4005</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1437,30 +1406,30 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>4001</v>
+        <v>4006</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1471,28 +1440,28 @@
       <c r="H15" s="1">
         <v>2000</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>165</v>
+      <c r="I15" s="2">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>4002</v>
+        <v>4007</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1507,24 +1476,24 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>4003</v>
+        <v>5001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1533,30 +1502,30 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>4004</v>
+        <v>5002</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1565,30 +1534,30 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>4005</v>
+        <v>5003</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1597,30 +1566,30 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>4006</v>
+        <v>5004</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1629,30 +1598,30 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>4007</v>
+        <v>5005</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1661,30 +1630,30 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>4008</v>
+        <v>5006</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1693,30 +1662,30 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>4009</v>
+        <v>5007</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1725,30 +1694,30 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>5001</v>
+        <v>5008</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1759,28 +1728,28 @@
       <c r="H24" s="1">
         <v>3000</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>157</v>
+      <c r="I24" s="2">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>5002</v>
+        <v>5009</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1789,30 +1758,30 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>5003</v>
+        <v>5010</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1821,30 +1790,30 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>5004</v>
+        <v>5012</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1853,30 +1822,30 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>5005</v>
+        <v>5013</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1885,30 +1854,30 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>5006</v>
+        <v>5014</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1917,30 +1886,30 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>5007</v>
+        <v>5015</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1949,30 +1918,30 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>5008</v>
+        <v>6001</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1981,30 +1950,30 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>5009</v>
+        <v>6002</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2013,30 +1982,30 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>5010</v>
+        <v>6003</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2045,30 +2014,30 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>5012</v>
+        <v>6004</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2077,30 +2046,30 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>5013</v>
+        <v>6005</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2109,30 +2078,30 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>5014</v>
+        <v>6006</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2141,30 +2110,30 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>5015</v>
+        <v>6007</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2173,21 +2142,21 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>6001</v>
+        <v>6008</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -2196,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2211,15 +2180,15 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>6002</v>
+        <v>6009</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -2228,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2243,15 +2212,15 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>6003</v>
+        <v>6010</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -2260,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2275,15 +2244,15 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>6004</v>
+        <v>6011</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -2292,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2307,24 +2276,24 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>6005</v>
+        <v>6012</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2333,30 +2302,30 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>6006</v>
+        <v>6013</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2365,30 +2334,30 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>6007</v>
+        <v>6014</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2397,30 +2366,30 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>6008</v>
+        <v>6015</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2429,30 +2398,30 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>6009</v>
+        <v>6016</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2461,30 +2430,30 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>6010</v>
+        <v>6017</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2493,30 +2462,30 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>6011</v>
+        <v>6018</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2525,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>6012</v>
+        <v>6019</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -2548,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2563,15 +2532,15 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>6013</v>
+        <v>6020</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
@@ -2580,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2595,24 +2564,24 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>6014</v>
+        <v>7001</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -2621,30 +2590,30 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>6015</v>
+        <v>7002</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -2653,30 +2622,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>6016</v>
+        <v>7003</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2685,30 +2654,30 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>6017</v>
+        <v>7004</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2717,30 +2686,30 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>6018</v>
+        <v>7005</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2749,30 +2718,30 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>6019</v>
+        <v>7006</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2781,30 +2750,30 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>6020</v>
+        <v>7007</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2813,30 +2782,30 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>7001</v>
+        <v>8001</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -2845,237 +2814,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>7002</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
-        <v>7003</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <v>7004</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
-        <v>7005</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
-        <v>7006</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
-        <v>7007</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
-        <v>8001</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>7</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +2835,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" activeCellId="2" sqref="B19 B19 B19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3103,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -3119,23 +2864,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -3143,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -3151,23 +2896,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -3175,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
